--- a/Testing documentation/Test Cases.xlsx
+++ b/Testing documentation/Test Cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\%__Software\GIT\CalculatorTest\Testing documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C0D85C-E500-4C24-9CCE-31F0172FAB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +24,290 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="89">
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>pre-condition</t>
+  </si>
+  <si>
+    <t>test data</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>bug report</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Тест ID</t>
+  </si>
+  <si>
+    <t>пред-условие</t>
+  </si>
+  <si>
+    <t>тестовые данные</t>
+  </si>
+  <si>
+    <t>шаги</t>
+  </si>
+  <si>
+    <t>ожидаемый результат</t>
+  </si>
+  <si>
+    <t>статус</t>
+  </si>
+  <si>
+    <t>баг репорт</t>
+  </si>
+  <si>
+    <t>комментарий</t>
+  </si>
+  <si>
+    <t>приложение открыто</t>
+  </si>
+  <si>
+    <t>1. Ввести тестовые данные 2. нажать кнопку =</t>
+  </si>
+  <si>
+    <t>2+2</t>
+  </si>
+  <si>
+    <t>3*3</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>9/3</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>11-0</t>
+  </si>
+  <si>
+    <t>11+0</t>
+  </si>
+  <si>
+    <t>11--1</t>
+  </si>
+  <si>
+    <t>-1-1</t>
+  </si>
+  <si>
+    <t>-1*3</t>
+  </si>
+  <si>
+    <t>3*(-1)</t>
+  </si>
+  <si>
+    <t>3*-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>pi, phi, e, sqrt 2, sqrt 3</t>
+  </si>
+  <si>
+    <t>(2+2)*2</t>
+  </si>
+  <si>
+    <t>2+2*2</t>
+  </si>
+  <si>
+    <t>2+2/2</t>
+  </si>
+  <si>
+    <t>(2+2)/2</t>
+  </si>
+  <si>
+    <t>100^2</t>
+  </si>
+  <si>
+    <t>100^0.5</t>
+  </si>
+  <si>
+    <t>100^-1</t>
+  </si>
+  <si>
+    <t>100^-2</t>
+  </si>
+  <si>
+    <t>100^1</t>
+  </si>
+  <si>
+    <t>10/1.5</t>
+  </si>
+  <si>
+    <t>10*1.5</t>
+  </si>
+  <si>
+    <t>10/0</t>
+  </si>
+  <si>
+    <t>10*0</t>
+  </si>
+  <si>
+    <t>10+0</t>
+  </si>
+  <si>
+    <t>10-0</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>0+10</t>
+  </si>
+  <si>
+    <t>0*10</t>
+  </si>
+  <si>
+    <t>0/10</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>0.000001+1</t>
+  </si>
+  <si>
+    <t>1/0.00001</t>
+  </si>
+  <si>
+    <t>1*0.00001</t>
+  </si>
+  <si>
+    <t>5+(5*5</t>
+  </si>
+  <si>
+    <t>5+5*5)</t>
+  </si>
+  <si>
+    <t>5+()5*5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>3.146 1.672 2.72 1.41 1.53</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.00001</t>
+  </si>
+  <si>
+    <t>6.666..</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>99999^999999</t>
+  </si>
+  <si>
+    <t>99999^-999999</t>
+  </si>
+  <si>
+    <t>1.000001</t>
+  </si>
+  <si>
+    <t>100/10+7*3-(2^4-1)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,14 +334,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +692,1000 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>